--- a/Reuse_Water/特許調査_kuma.xlsx
+++ b/Reuse_Water/特許調査_kuma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30029875\Desktop\米国再生水PJT\特許調査\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fa827\Documents\会社\NAWI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC87530-ECA3-49CA-BE20-B9D9CDE3C3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBDE0D9-6C9E-4DD6-B821-84FD26086DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D9555220-CE1A-487A-8D71-CB4A9CBFCC9C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{D9555220-CE1A-487A-8D71-CB4A9CBFCC9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>検索キーワード</t>
     <rPh sb="0" eb="2">
@@ -368,6 +366,83 @@
   </si>
   <si>
     <t>特願2013-513463</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特願2020-64988</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【課題】逆浸透膜装置を備えた水処理システム内の運転状況を適切に評価でき、水処理システムの運転条件の最適化を行うことが可能な水処理システム、水処理システムの運転管理支援システム及び水処理システムの運転方法を提供する。
+【解決手段】供給水を逆浸透膜処理して濃縮水及び透過水を得る逆浸透膜装置１０と、供給水の水質情報、逆浸透膜装置に供給する供給水を加圧する加圧ポンプの吐出圧、透過水の流量、濃縮水の流量、逆浸透膜のフラックスの情報の少なくともいずれかを含む逆浸透膜運転情報を収集し、収集した逆浸透膜運転情報を用いた機械学習により得られる学習済みモデルに基づいて、逆浸透膜装置の圧力損失及び／又は透過水の水質を予測し、該予測の結果に基づいて、逆浸透膜装置の運転条件及び／又はメンテナンスタイミング情報を含む最適化情報を作製し、作製された最適化情報に基づいて逆浸透膜装置を制御する運転管理支援システム３０とを備える水処理システム１０００である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水処理システム、水処理システムの運転管理支援システム及び水処理システムの運転方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆浸透膜&amp;最適化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特願2018-122115</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>純水製造装置、純水の製造方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【課題】原水の温度に応じて、処理水の回収率を最適化することができる純水製造装置および純水の製造方法を提供する。
+【解決手段】原水を収容する逆浸透原水槽２と、逆浸透原水槽２より供給された原水を処理水と濃縮水に分離する逆浸透膜３と、逆浸透膜３から排出された濃縮水の一部を逆浸透原水槽２に返送する返送路１２と、濃縮水の残部を系外に排出する排水路１３と、濃縮水の温度を測定する温度計４と、濃縮水の電気伝導度を測定する電気伝導度計５と、濃縮水の残部の流量を測定する流量計６と、温度計４、電気伝導度計５および流量計６における測定値に基づいて、濃縮水の残部の排出量を制御する制御弁７と、を備えた純水製造装置１。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特願2016-43822</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【課題】  パイロットプラントを建設することなく、建設地の海水の水質に応じた海水淡水化プラントの設計を支援することが可能な設計支援装置を提供する。
+【解決手段】  設計支援装置は、計測部及び算出部を具備する。計測部は、海水から、前記海水中に含まれる懸濁物質に関するデータを計測する。算出部は、海水淡水化装置における前処理機器の性能を示す指標値と、前記計測されるデータとの関係を予め記憶し、前記データが計測されると、前記関係を用い、前記指標値を算出する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計支援装置及び設計支援方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆浸透膜&amp;ファウリング&amp;データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【課題】洗浄液による分離膜の劣化を抑制し、運転の低コスト化を図りつつ、より確実に分離膜のファウリングを除去可能な洗浄計画を立案する水処理運転支援システム及び水処理運転支援方法を提供する。
+【解決手段】淡水化する分離膜２におけるファウリングの蓄積量を計算するファウリング蓄積量計算部５１と、蓄積量と洗浄液に関する情報とに基づいて化学的劣化指数及びファウリング除去指数を計算する洗浄影響計算部５２と、化学的劣化指数に基づき除去率を計算する除去率計算部５４と、ファウリング除去指数に基づき、分離膜２のろ過抵抗を計算するろ過抵抗計算部５５と、除去率とろ過抵抗とに基づき前記分離膜２の交換間隔を計算する膜交換間隔計算部５３と、ろ過抵抗と交換間隔とに基づき動力コストを計算する動力コスト計算部５７と、動力コストに基づいて洗浄計画を計算する洗浄計画計算部５８とを備える。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水処理運転支援システム及び水処理運転支援方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特願2013-119407</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【課題】  供給水の温度および濃度が変化した場合に、この変化に合わせて、高圧ポンプとＲＯ膜モジュールを有する造水プラントを運転制御し、経済的な運転制御を行う。
+【解決手段】  生産可能範囲計算手段１において、供給水の温度と濃度からＲＯ膜モジュールの膜特性式を求めるとともに、この膜特性式と、高圧ポンプ系特性式と、透過水濃度上限と、回収率と、高圧ポンプおよびＲＯ膜モジュールの使用流量範囲と、ＲＯ膜モジュールの圧力範囲とから造水プラントにおける生産可能な生産水量範囲を求める。生産水量制御手段２により、生産可能な生産水量範囲内における設定水量を目標値として定めて造水プラントの高圧ポンプを制御する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>造水プラントの運転制御装置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特願平９－１９２５４２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆浸透膜＆薬品＆制御</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -735,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D558191F-5867-4D37-8C93-958842BDBBF5}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -773,10 +848,10 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
@@ -790,10 +865,10 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
@@ -807,10 +882,10 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
@@ -824,10 +899,10 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
@@ -841,10 +916,10 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
@@ -855,13 +930,13 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
@@ -872,13 +947,13 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
@@ -889,16 +964,101 @@
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
         <v>7</v>
       </c>
     </row>
